--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-shimazaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-shimazaki\Documents\project\excel-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F659B4-F395-4328-B0DD-5C99A1142F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E3B81-3AEF-42BF-A5EC-C9B29E63E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1875" windowWidth="21600" windowHeight="13605" xr2:uid="{5CEA5992-C26D-4EC6-A122-DA2F93D30B2C}"/>
+    <workbookView xWindow="2910" yWindow="1530" windowWidth="21600" windowHeight="13605" xr2:uid="{5CEA5992-C26D-4EC6-A122-DA2F93D30B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakikukeko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,14 +474,14 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
